--- a/metriclearning/HT/Experiments.xlsx
+++ b/metriclearning/HT/Experiments.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/metriclearning/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158FD5C-CE8C-3344-B408-7DE3EBD0BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BC04E429-3AD9-BE46-B8E3-17EE2B75202D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="1460" windowWidth="34960" windowHeight="17040" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="35840" yWindow="1460" windowWidth="34960" windowHeight="17040" activeTab="2" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiment_Round" sheetId="30" r:id="rId1"/>
-    <sheet name="LeaderBoard" sheetId="25" r:id="rId2"/>
-    <sheet name="Pivot" sheetId="28" r:id="rId3"/>
-    <sheet name="0" sheetId="13" r:id="rId4"/>
-    <sheet name="1_4" sheetId="27" r:id="rId5"/>
-    <sheet name="2_7" sheetId="31" r:id="rId6"/>
-    <sheet name="3_2&amp;1" sheetId="34" r:id="rId7"/>
-    <sheet name="4_1" sheetId="33" r:id="rId8"/>
-    <sheet name="5_2" sheetId="35" r:id="rId9"/>
+    <sheet name="Data" sheetId="36" r:id="rId1"/>
+    <sheet name="Experiment_Round" sheetId="30" r:id="rId2"/>
+    <sheet name="LeaderBoard" sheetId="25" r:id="rId3"/>
+    <sheet name="Pivot" sheetId="28" r:id="rId4"/>
+    <sheet name="0" sheetId="13" r:id="rId5"/>
+    <sheet name="1_4" sheetId="27" r:id="rId6"/>
+    <sheet name="2_7" sheetId="31" r:id="rId7"/>
+    <sheet name="3_2&amp;1" sheetId="34" r:id="rId8"/>
+    <sheet name="4_1" sheetId="33" r:id="rId9"/>
+    <sheet name="5_2" sheetId="35" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="131">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -577,22 +579,7 @@
       <t xml:space="preserve">コウカ </t>
     </rPh>
     <rPh sb="82" eb="83">
-      <t xml:space="preserve">イエナイ </t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t xml:space="preserve">コウカガ </t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t xml:space="preserve">セイヤクノセイガ </t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t xml:space="preserve">ジドウデ </t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t xml:space="preserve">チイサク </t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t xml:space="preserve">チュウイ コウカテキ </t>
+      <t xml:space="preserve">イエナイ コウカガ セイヤクノセイガ ジドウデ チイサク チュウイ コウカテキ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,13 +640,7 @@
       <t xml:space="preserve">ツカワレタリ </t>
     </rPh>
     <rPh sb="94" eb="95">
-      <t>_x0000_2_x0004__x000B_</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>8_x0001__x0012_^</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t/>
+      <t>_x0000_2_x0004__x000B_8_x0001__x0012_^</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -687,12 +668,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>market_metriclearning_small_HT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://sample-data-open.s3.ap-northeast-1.amazonaws.com/market-metriclearning/market_metriclearning_small_HT.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実験データ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッケンデータ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,6 +733,15 @@
     <font>
       <sz val="12"/>
       <color theme="7"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -934,12 +939,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,40 +1035,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,32 +1062,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1776,10 +1746,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F22FF2-B167-6748-B8A9-29C7AAAD7995}">
+  <dimension ref="B4:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{93E9447F-D173-BE4B-B672-59FE4A99B3A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EB3F49-12F2-8C41-B76A-DD67BE6A4F75}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F089FF5-DC01-CC48-8E23-EA62338A93A4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1801,7 +1822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1814,7 +1835,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1825,7 +1846,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1836,7 +1857,7 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="40" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1847,7 +1868,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1871,13 +1892,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36BE600-B5AE-584B-AF79-04D695C3394A}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2347,7 +2368,7 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
@@ -2397,7 +2418,7 @@
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
@@ -2444,7 +2465,7 @@
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
@@ -2491,7 +2512,7 @@
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
@@ -2538,7 +2559,7 @@
       <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
@@ -2585,7 +2606,7 @@
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2630,7 +2651,7 @@
       <c r="R15" s="6">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2638,7 +2659,7 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
@@ -2685,7 +2706,7 @@
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
@@ -2732,7 +2753,7 @@
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" t="s">
         <v>83</v>
       </c>
       <c r="C18" t="s">
@@ -2779,7 +2800,7 @@
       <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
@@ -2826,7 +2847,7 @@
       <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
       <c r="C20" t="s">
@@ -2873,7 +2894,7 @@
       <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" t="s">
@@ -2920,7 +2941,7 @@
       <c r="A22" s="5">
         <v>2</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" t="s">
         <v>87</v>
       </c>
       <c r="C22" t="s">
@@ -2967,7 +2988,7 @@
       <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" t="s">
         <v>88</v>
       </c>
       <c r="C23" t="s">
@@ -3014,7 +3035,7 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" t="s">
         <v>89</v>
       </c>
       <c r="C24" t="s">
@@ -3061,7 +3082,7 @@
       <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" t="s">
         <v>90</v>
       </c>
       <c r="C25" t="s">
@@ -3108,54 +3129,51 @@
       <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30">
-        <v>32</v>
-      </c>
-      <c r="F26" s="30">
-        <v>128</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26">
         <v>1E-3</v>
       </c>
-      <c r="I26" s="30">
-        <v>10</v>
-      </c>
-      <c r="J26" s="30" t="s">
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26">
         <v>512</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26">
         <v>0.5</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26">
         <v>60</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30">
+      <c r="O26">
         <v>0.75639999999999996</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26">
         <v>0.79520000000000002</v>
       </c>
-      <c r="Q26" s="30"/>
       <c r="R26" s="6">
         <v>3.9583333333333337E-3</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="48">
+      <c r="A27" s="2">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3182,7 +3200,7 @@
       <c r="I27" s="3">
         <v>10</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="3">
@@ -3205,67 +3223,65 @@
       <c r="R27" s="4">
         <v>3.9583333333333337E-3</v>
       </c>
-      <c r="S27" s="52" t="s">
+      <c r="S27" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="47">
+      <c r="A28" s="5">
         <v>3</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30">
-        <v>32</v>
-      </c>
-      <c r="F28" s="30">
-        <v>128</v>
-      </c>
-      <c r="G28" s="30" t="s">
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28">
         <v>1E-3</v>
       </c>
-      <c r="I28" s="30">
-        <v>10</v>
-      </c>
-      <c r="J28" s="29" t="s">
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28">
         <v>256</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28">
         <v>0.5</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28">
         <v>30</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30">
+      <c r="O28">
         <v>0.95350000000000001</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28">
         <v>0.94399999999999995</v>
       </c>
-      <c r="Q28" s="30" t="s">
+      <c r="Q28" t="s">
         <v>8</v>
       </c>
       <c r="R28" s="6">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="S28" s="53" t="s">
+      <c r="S28" s="39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="50">
+      <c r="A29" s="16">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3290,7 +3306,7 @@
       <c r="I29" s="7">
         <v>10</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="7">
@@ -3315,10 +3331,10 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="48">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3340,7 +3356,7 @@
       <c r="I30" s="3">
         <v>10</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="3">
@@ -3367,210 +3383,198 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="47">
+      <c r="A31" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30">
-        <v>32</v>
-      </c>
-      <c r="F31" s="30">
-        <v>128</v>
-      </c>
-      <c r="G31" s="51" t="s">
+      <c r="E31">
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <v>128</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I31" s="30">
-        <v>10</v>
-      </c>
-      <c r="J31" s="29" t="s">
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31">
         <v>256</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31">
         <v>0.5</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M31">
         <v>30</v>
       </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30">
+      <c r="O31">
         <v>0.86229999999999996</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31">
         <v>0.88039999999999996</v>
       </c>
-      <c r="Q31" s="30"/>
       <c r="R31" s="6">
         <v>6.1921296296296299E-3</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="47">
+      <c r="A32" s="5">
         <v>4</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30">
-        <v>32</v>
-      </c>
-      <c r="F32" s="30">
-        <v>128</v>
-      </c>
-      <c r="G32" s="51" t="s">
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>128</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32">
         <v>1E-4</v>
       </c>
-      <c r="I32" s="30">
-        <v>10</v>
-      </c>
-      <c r="J32" s="29" t="s">
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32">
         <v>256</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32">
         <v>0.5</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32">
         <v>30</v>
       </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30">
+      <c r="O32">
         <v>0.57689999999999997</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32">
         <v>0.68269999999999997</v>
       </c>
-      <c r="Q32" s="30"/>
       <c r="R32" s="6">
         <v>6.2037037037037035E-3</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="47">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30">
-        <v>32</v>
-      </c>
-      <c r="F33" s="30">
-        <v>128</v>
-      </c>
-      <c r="G33" s="51" t="s">
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33">
         <v>1E-3</v>
       </c>
-      <c r="I33" s="30">
-        <v>10</v>
-      </c>
-      <c r="J33" s="29" t="s">
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33">
         <v>256</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33">
         <v>0.5</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33">
         <v>30</v>
       </c>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30">
+      <c r="O33">
         <v>0.94320000000000004</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33">
         <v>0.9355</v>
       </c>
-      <c r="Q33" s="30"/>
       <c r="R33" s="6">
         <v>6.2615740740740739E-3</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="47">
+      <c r="A34" s="5">
         <v>4</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30">
-        <v>32</v>
-      </c>
-      <c r="F34" s="30">
-        <v>128</v>
-      </c>
-      <c r="G34" s="51" t="s">
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>128</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I34" s="30">
-        <v>10</v>
-      </c>
-      <c r="J34" s="29" t="s">
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34">
         <v>256</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34">
         <v>0.5</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34">
         <v>30</v>
       </c>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30">
+      <c r="O34">
         <v>0.9224</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34">
         <v>0.91500000000000004</v>
       </c>
-      <c r="Q34" s="30"/>
       <c r="R34" s="6">
         <v>6.4467592592592588E-3</v>
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="50">
+      <c r="A35" s="16">
         <v>4</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -3592,7 +3596,7 @@
       <c r="I35" s="7">
         <v>10</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="7">
@@ -3617,10 +3621,10 @@
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="48">
+      <c r="A36" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3669,126 +3673,124 @@
       <c r="R36" s="4">
         <v>3.9583333333333337E-3</v>
       </c>
-      <c r="S36" s="52" t="s">
+      <c r="S36" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="47">
+      <c r="A37" s="5">
         <v>5</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="30">
-        <v>32</v>
-      </c>
-      <c r="F37" s="30">
-        <v>128</v>
-      </c>
-      <c r="G37" s="30" t="s">
+      <c r="E37">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37">
         <v>1E-3</v>
       </c>
-      <c r="I37" s="30">
-        <v>10</v>
-      </c>
-      <c r="J37" s="30" t="s">
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37">
         <v>256</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37">
         <v>0.5</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37">
         <v>30</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="N37" t="s">
         <v>115</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37">
         <v>0.95630000000000004</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37">
         <v>0.95299999999999996</v>
       </c>
-      <c r="Q37" s="30" t="s">
+      <c r="Q37" t="s">
         <v>8</v>
       </c>
       <c r="R37" s="6">
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="S37" s="53" t="s">
+      <c r="S37" s="39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="47">
+      <c r="A38" s="5">
         <v>5</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30">
-        <v>32</v>
-      </c>
-      <c r="F38" s="30">
-        <v>128</v>
-      </c>
-      <c r="G38" s="30" t="s">
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38">
         <v>1E-3</v>
       </c>
-      <c r="I38" s="30">
-        <v>10</v>
-      </c>
-      <c r="J38" s="30" t="s">
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38">
         <v>256</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38">
         <v>0.5</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38">
         <v>30</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" t="s">
         <v>116</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38">
         <v>0.94750000000000001</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38">
         <v>0.9415</v>
       </c>
-      <c r="Q38" s="30"/>
       <c r="R38" s="6">
         <v>3.9467592592592592E-3</v>
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="50">
+      <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3862,6 +3864,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8C520DDF-6823-3B42-8401-96F541F91604}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O29">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5E7F9C74-2D72-4D49-AA79-B0BE0CACF646}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2153C61-2A73-F840-83EC-A3E122BB31CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36:O39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2866E53-7904-E04C-AFF0-155904DA8C49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3894,20 +3938,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O29">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E7F9C74-2D72-4D49-AA79-B0BE0CACF646}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -3922,20 +3952,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2153C61-2A73-F840-83EC-A3E122BB31CD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P30:P35">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -3946,20 +3962,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{77576964-27C9-D34F-9100-D71C92E511BE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:O39">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2866E53-7904-E04C-AFF0-155904DA8C49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4009,6 +4011,45 @@
           <xm:sqref>O9:O26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5E7F9C74-2D72-4D49-AA79-B0BE0CACF646}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O27:O29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A2153C61-2A73-F840-83EC-A3E122BB31CD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O30:O35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A2866E53-7904-E04C-AFF0-155904DA8C49}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O36:O39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D92FAA4-07EE-2543-8F9B-5CC8973151CE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4035,19 +4076,6 @@
           <xm:sqref>P9:P26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E7F9C74-2D72-4D49-AA79-B0BE0CACF646}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O27:O29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E48A231-A2C1-AE43-927A-A78328120FA0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4061,19 +4089,6 @@
           <xm:sqref>P27:P29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2153C61-2A73-F840-83EC-A3E122BB31CD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O30:O35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77576964-27C9-D34F-9100-D71C92E511BE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4085,19 +4100,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>P30:P35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2866E53-7904-E04C-AFF0-155904DA8C49}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O36:O39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B1C3A27-11A2-224E-A422-05B3CBBA7702}">
@@ -4118,7 +4120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433671D2-8577-E54C-A1EA-4756DD7C62A7}">
   <dimension ref="A1:W19"/>
   <sheetViews>
@@ -4188,7 +4190,7 @@
       <c r="P1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:23" ht="21">
       <c r="A2" s="2">
@@ -4234,17 +4236,16 @@
       <c r="O2" s="3">
         <v>0.89610000000000001</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="29">
         <v>0.90400000000000003</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="36" t="s">
         <v>93</v>
       </c>
       <c r="W2" t="s">
@@ -4255,59 +4256,58 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="30">
-        <v>32</v>
-      </c>
-      <c r="F3" s="30">
-        <v>128</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="30">
-        <v>10</v>
-      </c>
-      <c r="J3" s="30" t="s">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3">
         <v>256</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3">
         <v>0.1</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3">
         <v>45</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3">
         <v>0.87809999999999999</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="30">
         <v>0.8972</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="S3" s="42">
+      <c r="S3" s="33">
         <v>30</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3">
         <v>0.9290666666666666</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="30">
         <v>0.93203333333333338</v>
       </c>
       <c r="V3" t="s">
@@ -4318,57 +4318,55 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30">
-        <v>128</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="30">
-        <v>10</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4">
         <v>256</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4">
         <v>60</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4">
         <v>0.8609</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="30">
         <v>0.88639999999999997</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="S4" s="42">
+      <c r="S4" s="33">
         <v>45</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4">
         <v>0.91679999999999995</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="30">
         <v>0.92083333333333328</v>
       </c>
     </row>
@@ -4376,57 +4374,55 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30">
-        <v>32</v>
-      </c>
-      <c r="F5" s="30">
-        <v>128</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="30">
-        <v>10</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5">
         <v>256</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5">
         <v>0.3</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5">
         <v>30</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5">
         <v>0.92849999999999999</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="30">
         <v>0.9335</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="S5" s="43">
+      <c r="S5" s="34">
         <v>60</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="7">
         <v>0.88533333333333342</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="31">
         <v>0.89901666666666669</v>
       </c>
     </row>
@@ -4434,106 +4430,102 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30">
-        <v>32</v>
-      </c>
-      <c r="F6" s="30">
-        <v>128</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="30">
-        <v>10</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6">
         <v>256</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6">
         <v>0.3</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6">
         <v>45</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6">
         <v>0.91879999999999995</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="30">
         <v>0.91990000000000005</v>
       </c>
-      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:23" ht="21">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30">
-        <v>32</v>
-      </c>
-      <c r="F7" s="30">
-        <v>128</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7">
         <v>1E-3</v>
       </c>
-      <c r="I7" s="30">
-        <v>10</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7">
         <v>256</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7">
         <v>0.3</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7">
         <v>60</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7">
         <v>0.91990000000000005</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="30">
         <v>0.92510000000000003</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="36" t="s">
         <v>93</v>
       </c>
       <c r="W7" t="s">
@@ -4544,57 +4536,55 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
-        <v>32</v>
-      </c>
-      <c r="F8" s="30">
-        <v>128</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8">
         <v>1E-3</v>
       </c>
-      <c r="I8" s="30">
-        <v>10</v>
-      </c>
-      <c r="J8" s="30" t="s">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8">
         <v>256</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8">
         <v>0.5</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8">
         <v>30</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8">
         <v>0.95099999999999996</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="30">
         <v>0.9536</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="S8" s="42">
+      <c r="S8" s="33">
         <v>0.1</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8">
         <v>0.88483333333333336</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="30">
         <v>0.90196666666666669</v>
       </c>
     </row>
@@ -4602,57 +4592,55 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30">
-        <v>32</v>
-      </c>
-      <c r="F9" s="30">
-        <v>128</v>
-      </c>
-      <c r="G9" s="30" t="s">
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9">
         <v>1E-3</v>
       </c>
-      <c r="I9" s="30">
-        <v>10</v>
-      </c>
-      <c r="J9" s="30" t="s">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9">
         <v>256</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9">
         <v>0.5</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9">
         <v>45</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9">
         <v>0.94210000000000005</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="30">
         <v>0.9385</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="S9" s="42">
+      <c r="S9" s="33">
         <v>0.3</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9">
         <v>0.92899999999999994</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="30">
         <v>0.93161666666666676</v>
       </c>
       <c r="V9" t="s">
@@ -4663,57 +4651,55 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
-        <v>32</v>
-      </c>
-      <c r="F10" s="30">
-        <v>128</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10">
         <v>1E-3</v>
       </c>
-      <c r="I10" s="30">
-        <v>10</v>
-      </c>
-      <c r="J10" s="30" t="s">
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10">
         <v>256</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10">
         <v>0.5</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10">
         <v>60</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10">
         <v>0.95389999999999997</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="30">
         <v>0.93930000000000002</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="S10" s="43">
+      <c r="S10" s="34">
         <v>0.5</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="7">
         <v>0.91736666666666666</v>
       </c>
-      <c r="U10" s="40">
+      <c r="U10" s="31">
         <v>0.91830000000000001</v>
       </c>
     </row>
@@ -4721,106 +4707,102 @@
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30">
-        <v>32</v>
-      </c>
-      <c r="F11" s="30">
-        <v>128</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11">
         <v>1E-3</v>
       </c>
-      <c r="I11" s="30">
-        <v>10</v>
-      </c>
-      <c r="J11" s="30" t="s">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11">
         <v>512</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11">
         <v>0.1</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11">
         <v>30</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11">
         <v>0.90439999999999998</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="30">
         <v>0.91620000000000001</v>
       </c>
-      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:23" ht="21">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30">
-        <v>32</v>
-      </c>
-      <c r="F12" s="30">
-        <v>128</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12">
         <v>1E-3</v>
       </c>
-      <c r="I12" s="30">
-        <v>10</v>
-      </c>
-      <c r="J12" s="30" t="s">
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12">
         <v>512</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12">
         <v>0.1</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12">
         <v>45</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12">
         <v>0.88</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="30">
         <v>0.89600000000000002</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="S12" s="41" t="s">
+      <c r="S12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="46" t="s">
+      <c r="T12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="45" t="s">
+      <c r="U12" s="36" t="s">
         <v>93</v>
       </c>
       <c r="W12" t="s">
@@ -4831,57 +4813,55 @@
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30">
-        <v>32</v>
-      </c>
-      <c r="F13" s="30">
-        <v>128</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13">
         <v>1E-3</v>
       </c>
-      <c r="I13" s="30">
-        <v>10</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13">
         <v>512</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13">
         <v>0.1</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13">
         <v>60</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="30">
         <v>0.91200000000000003</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="S13" s="42">
+      <c r="S13" s="33">
         <v>256</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13">
         <v>0.9165888888888889</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="30">
         <v>0.92194444444444457</v>
       </c>
       <c r="V13" t="s">
@@ -4892,57 +4872,55 @@
       <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30">
-        <v>32</v>
-      </c>
-      <c r="F14" s="30">
-        <v>128</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14">
         <v>1E-3</v>
       </c>
-      <c r="I14" s="30">
-        <v>10</v>
-      </c>
-      <c r="J14" s="30" t="s">
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14">
         <v>512</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14">
         <v>0.3</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14">
         <v>30</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14">
         <v>0.94079999999999997</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="30">
         <v>0.94010000000000005</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="S14" s="43">
+      <c r="S14" s="34">
         <v>512</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="7">
         <v>0.90421111111111097</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="31">
         <v>0.91264444444444437</v>
       </c>
     </row>
@@ -4950,203 +4928,195 @@
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30">
-        <v>32</v>
-      </c>
-      <c r="F15" s="30">
-        <v>128</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="30">
-        <v>10</v>
-      </c>
-      <c r="J15" s="30" t="s">
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15">
         <v>512</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15">
         <v>0.3</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15">
         <v>45</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15">
         <v>0.93459999999999999</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="30">
         <v>0.93500000000000005</v>
       </c>
-      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30">
-        <v>32</v>
-      </c>
-      <c r="F16" s="30">
-        <v>128</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16">
         <v>1E-3</v>
       </c>
-      <c r="I16" s="30">
-        <v>10</v>
-      </c>
-      <c r="J16" s="30" t="s">
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16">
         <v>512</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16">
         <v>0.3</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16">
         <v>60</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16">
         <v>0.93140000000000001</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="30">
         <v>0.93610000000000004</v>
       </c>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30">
-        <v>32</v>
-      </c>
-      <c r="F17" s="30">
-        <v>128</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17">
         <v>1E-3</v>
       </c>
-      <c r="I17" s="30">
-        <v>10</v>
-      </c>
-      <c r="J17" s="30" t="s">
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17">
         <v>512</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17">
         <v>0.5</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17">
         <v>30</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17">
         <v>0.9536</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="30">
         <v>0.94479999999999997</v>
       </c>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30">
-        <v>32</v>
-      </c>
-      <c r="F18" s="30">
-        <v>128</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18">
         <v>1E-3</v>
       </c>
-      <c r="I18" s="30">
-        <v>10</v>
-      </c>
-      <c r="J18" s="30" t="s">
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18">
         <v>512</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18">
         <v>0.5</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18">
         <v>45</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18">
         <v>0.94720000000000004</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="30">
         <v>0.93840000000000001</v>
       </c>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -5186,10 +5156,9 @@
       <c r="O19" s="7">
         <v>0.75639999999999996</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="31">
         <v>0.79520000000000002</v>
       </c>
-      <c r="Q19" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5235,6 +5204,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T10">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29F80198-337B-8F4A-83F7-7B77A401E3F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{143026BF-9E48-D147-944B-5E6229B33C9C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U3:U5">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -5249,20 +5246,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T10">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29F80198-337B-8F4A-83F7-7B77A401E3F0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -5273,20 +5256,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{65743453-3A92-514B-B19B-9EA2C837C2CD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:T14">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{143026BF-9E48-D147-944B-5E6229B33C9C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5349,6 +5318,32 @@
           <xm:sqref>T3:T5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29F80198-337B-8F4A-83F7-7B77A401E3F0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T8:T10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{143026BF-9E48-D147-944B-5E6229B33C9C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T13:T14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{416EDCCF-688C-4441-9A66-4A3D28CD9D86}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -5362,19 +5357,6 @@
           <xm:sqref>U3:U5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29F80198-337B-8F4A-83F7-7B77A401E3F0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T8:T10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65743453-3A92-514B-B19B-9EA2C837C2CD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -5386,19 +5368,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>U8:U10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{143026BF-9E48-D147-944B-5E6229B33C9C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T13:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{76874A09-3818-0D42-9848-1D2A28B72F15}">
@@ -5419,7 +5388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3ED50F-2001-B346-BE5E-C6D43A430713}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5435,7 +5404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0E2D7F-E5A0-3144-B168-13F07F63B41F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5451,7 +5420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD905211-47D8-6C41-A8FC-12E02DBE0855}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5467,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375EDEAD-EAD7-B047-A327-9C10D6507D26}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5483,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9F1DAA-538A-CD40-8737-6F8F0434AFCD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5497,20 +5466,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EB3F49-12F2-8C41-B76A-DD67BE6A4F75}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>